--- a/Data/benchmark.xlsx
+++ b/Data/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xywan\OneDrive - SAIF\桌面\RiskQuantLib-Universal-Excess-Return-Analysis-Frame\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xywan\Desktop\New\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C997F02F-77D6-40CF-BAED-69A358E62FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BFD57-1A11-414F-9161-0F9F79EED16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6758" yWindow="8490" windowWidth="15390" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,14 @@
   </si>
   <si>
     <t>index_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameSec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,51 +544,51 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44348</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -597,21 +597,21 @@
         <v>-2.6008364080352162E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -620,21 +620,21 @@
         <v>-8.0328696925652532E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.3</v>
@@ -643,21 +643,21 @@
         <v>6.7034798223262526E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44348</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -666,21 +666,21 @@
         <v>9.9609354223880814E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44348</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -689,21 +689,21 @@
         <v>-6.0017969295000639E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44348</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0.02</v>
@@ -712,21 +712,21 @@
         <v>-9.6953917693406583E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44348</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0.89</v>
@@ -735,21 +735,21 @@
         <v>3.5416303389786352E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -758,21 +758,21 @@
         <v>4.6384994146975694E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44348</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -781,21 +781,21 @@
         <v>-3.1553501453548891E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44348</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -804,21 +804,21 @@
         <v>-8.8292302480202769E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44349</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0.2</v>
@@ -827,21 +827,21 @@
         <v>-2.3313395384138985E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44349</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0.3</v>
@@ -850,21 +850,21 @@
         <v>-9.6912328365648448E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44349</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -873,21 +873,21 @@
         <v>1.1065097642787708E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44349</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -896,21 +896,21 @@
         <v>3.2488821858434797E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44349</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0.3</v>
@@ -919,21 +919,21 @@
         <v>-7.0798051707073095E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44349</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -942,21 +942,21 @@
         <v>-2.9802243160396508E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44349</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0.03</v>
@@ -965,21 +965,21 @@
         <v>-3.7431425130840926E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44349</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0.19</v>
@@ -988,21 +988,21 @@
         <v>-2.7672983162463652E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0.2</v>
@@ -1011,21 +1011,21 @@
         <v>6.5128833110167234E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0.56999999999999995</v>
@@ -1034,7 +1034,7 @@
         <v>9.2812247478794546E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
